--- a/imdb_reviews/classifier_results/ClassifierResults.xlsx
+++ b/imdb_reviews/classifier_results/ClassifierResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasht\fakenews\imdb_reviews\classifier_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521CAA8-798D-46C4-ADD3-5E411B55B97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F092410-B3B2-44FE-8023-62FD94D46B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9071237F-F9FF-4F54-B717-9D6CC3BFD078}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="39">
   <si>
     <t>Model name</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>d2vdbow50</t>
-  </si>
-  <si>
-    <t>d2vdbow5050</t>
   </si>
 </sst>
 </file>
@@ -511,7 +508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +954,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1043,7 +1040,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1172,7 +1169,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1344,7 +1341,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1387,7 +1384,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1473,7 +1470,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1516,7 +1513,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1559,7 +1556,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -1602,7 +1599,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1774,7 +1771,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -2634,7 +2631,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
@@ -4053,7 +4050,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
@@ -4784,7 +4781,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
@@ -6388,7 +6385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18036,7 +18033,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40465,8 +40462,8 @@
   <dimension ref="A1:M487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
